--- a/utils/localisation_script/excel_to_json/bn/q.xlsx
+++ b/utils/localisation_script/excel_to_json/bn/q.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Downloads/Delta2 Bengali files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/bn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814FA299-271F-944C-B543-2C6DD82A6FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51CF9A2-E72F-1047-9D30-A5FF4D3A4531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27680" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,7 +212,7 @@
     <t>আপনি আপনার ব্রোঞ্জ ভাষা সমর্থক উপাধি অর্জন থেকে মাত্র x বাক্য দূরে রয়েছেন</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bengali</t>
+    <t>Bengali</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A2:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
